--- a/out_test.xlsx
+++ b/out_test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>num</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>dfg</t>
+  </si>
+  <si>
+    <t>ttyt</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2-.0</t>
   </si>
 </sst>
 </file>
@@ -136,7 +148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -286,6 +298,54 @@
         <v>8</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/out_test.xlsx
+++ b/out_test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>num</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>2-.0</t>
+  </si>
+  <si>
+    <t>2.45534</t>
+  </si>
+  <si>
+    <t>бжжллжэ</t>
+  </si>
+  <si>
+    <t>ждлжлжл</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -148,7 +160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -346,6 +358,38 @@
         <v>8</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s" s="1">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/out_test.xlsx
+++ b/out_test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
   <si>
     <t>num</t>
   </si>
@@ -87,6 +87,21 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>5/5</t>
   </si>
 </sst>
 </file>
@@ -160,7 +175,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -390,6 +405,62 @@
         <v>15</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s" s="1">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
